--- a/input/Бат.xlsx
+++ b/input/Бат.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC0AA36-8B3C-6A44-8106-6591D00C9207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CB2603-289E-43F2-A39D-BA40CDF3D8B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -41,60 +41,108 @@
     <t>Регистр</t>
   </si>
   <si>
+    <t>Ургийн овог</t>
+  </si>
+  <si>
     <t>Овог</t>
   </si>
   <si>
     <t>Нэр</t>
   </si>
   <si>
-    <t>Ургийн овог</t>
-  </si>
-  <si>
     <t>Хүйс</t>
   </si>
   <si>
     <t>Хаяг</t>
   </si>
   <si>
+    <t>жю86061800</t>
+  </si>
+  <si>
+    <t>Хошууд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баярням </t>
+  </si>
+  <si>
+    <t>Мөнгөн-Од</t>
+  </si>
+  <si>
+    <t>эмэгтэй</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 8-р хороо, 4 хороолол, ард аюуш гудамж, 15 байр, 70 тоот</t>
+  </si>
+  <si>
+    <t>жю89090909</t>
+  </si>
+  <si>
+    <t>Очир</t>
+  </si>
+  <si>
+    <t>Галбадрах</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 20-р хороо, Өлзийт хороолол,3 гудамж, 70 тоот</t>
+  </si>
+  <si>
+    <t>уа78052378</t>
+  </si>
+  <si>
+    <t>Боржигон</t>
+  </si>
+  <si>
+    <t>Бат</t>
+  </si>
+  <si>
+    <t>Дорж</t>
+  </si>
+  <si>
+    <t>эрэгтэй</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 5-р хороо, 3 хороолол, Энэбишийн гудамж, 29 байр, 32 тоот</t>
+  </si>
+  <si>
+    <t>уо66060606</t>
+  </si>
+  <si>
+    <t>Баяд</t>
+  </si>
+  <si>
+    <t>Од</t>
+  </si>
+  <si>
+    <t>Мичид</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 15-р хороо, 19 хороолол, сугуудын гудамж, 247 байр, 247 тоот</t>
+  </si>
+  <si>
+    <t>уо86060606</t>
+  </si>
+  <si>
+    <t>Галзуу</t>
+  </si>
+  <si>
+    <t>Ганбат</t>
+  </si>
+  <si>
+    <t>Жаргалсайхан</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 15-р хороо, 120 мянгат, Оргил цогцолбор, 109 байр, 105 тоот</t>
+  </si>
+  <si>
     <t>уу83112718</t>
   </si>
   <si>
-    <t>Боржигон</t>
-  </si>
-  <si>
     <t>Нармандах</t>
   </si>
   <si>
     <t>Энэрэл</t>
   </si>
   <si>
-    <t>эрэгтэй</t>
-  </si>
-  <si>
-    <t>жю86061800</t>
-  </si>
-  <si>
-    <t>Хошууд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баярням </t>
-  </si>
-  <si>
-    <t>Мөнгөн-Од</t>
-  </si>
-  <si>
-    <t>эмэгтэй</t>
-  </si>
-  <si>
-    <t>Бат</t>
-  </si>
-  <si>
-    <t>Дорж</t>
-  </si>
-  <si>
-    <t>уа78052378</t>
-  </si>
-  <si>
     <t>уш90122021</t>
   </si>
   <si>
@@ -104,62 +152,29 @@
     <t>Мөнх-Эрдэнэ</t>
   </si>
   <si>
-    <t>уо66060606</t>
-  </si>
-  <si>
-    <t>Баяд</t>
-  </si>
-  <si>
-    <t>Од</t>
-  </si>
-  <si>
-    <t>Мичид</t>
-  </si>
-  <si>
-    <t>УБ, Хан-Уул, 15-р хороо, 19 хороолол, сугуудын гудамж, 247 байр, 247 тоот</t>
-  </si>
-  <si>
-    <t>УБ, Хан-Уул, 5-р хороо, 3 хороолол, Энэбишийн гудамж, 29 байр, 32 тоот</t>
-  </si>
-  <si>
     <t>УБ, Хан-Уул, 19-р хороо, 19 хороолол, оркуудын гудамж, 29 байр, 32 тоот</t>
   </si>
   <si>
-    <t>жю89090909</t>
-  </si>
-  <si>
-    <t>Очир</t>
-  </si>
-  <si>
-    <t>Галбадрах</t>
-  </si>
-  <si>
-    <t>УБ, Хан-Уул, 20-р хороо, Өлзийт хороолол,3 гудамж, 70 тоот</t>
-  </si>
-  <si>
-    <t>уо86060606</t>
-  </si>
-  <si>
-    <t>Галзуу</t>
-  </si>
-  <si>
-    <t>Жаргалсайхан</t>
-  </si>
-  <si>
-    <t>Ганбат</t>
-  </si>
-  <si>
-    <t>УБ, Хан-Уул, 15-р хороо, 120 мянгат, Оргил цогцолбор, 109 байр, 105 тоот</t>
-  </si>
-  <si>
-    <t>УБ, Хан-Уул, 8-р хороо, 4 хороолол, ард аюуш гудамж, 15 байр, 70 тоот</t>
+    <t>уш99999999</t>
+  </si>
+  <si>
+    <t>уш68050511</t>
+  </si>
+  <si>
+    <t>Ундраа</t>
+  </si>
+  <si>
+    <t>Хосжаргал</t>
+  </si>
+  <si>
+    <t>УБ, Хан-Уул, 7-р хороо, Жаргалант 1 гудамж, 29 байр, 32 тоот</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -506,24 +521,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16796875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.96484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.16796875" style="2"/>
-    <col min="4" max="5" width="12.9453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.8671875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.16796875" style="2"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,13 +547,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
@@ -546,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -566,18 +582,18 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -585,129 +601,221 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" ht="35.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G9">
+    <sortCondition ref="B3:B9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
